--- a/Analis.xlsx
+++ b/Analis.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="116">
   <si>
     <t xml:space="preserve">сортировка</t>
   </si>
@@ -96,12 +96,18 @@
     <t xml:space="preserve">Merge sort</t>
   </si>
   <si>
+    <t xml:space="preserve">873_378</t>
+  </si>
+  <si>
     <t xml:space="preserve">1_853_700</t>
   </si>
   <si>
     <t xml:space="preserve">Merge sort без доп памяти</t>
   </si>
   <si>
+    <t xml:space="preserve">115_760</t>
+  </si>
+  <si>
     <t xml:space="preserve">11_362_799</t>
   </si>
   <si>
@@ -135,6 +141,9 @@
     <t xml:space="preserve">944_365</t>
   </si>
   <si>
+    <t xml:space="preserve">- (опорный - рандом)</t>
+  </si>
+  <si>
     <t xml:space="preserve">K-я стат в среднем O(n)</t>
   </si>
   <si>
@@ -144,9 +153,6 @@
     <t xml:space="preserve">156_138</t>
   </si>
   <si>
-    <t xml:space="preserve">- (опорный - рандом)</t>
-  </si>
-  <si>
     <t xml:space="preserve">K-я стат в худшем O(n)</t>
   </si>
   <si>
@@ -219,9 +225,15 @@
     <t xml:space="preserve">22_787_161</t>
   </si>
   <si>
+    <t xml:space="preserve">10_023_443</t>
+  </si>
+  <si>
     <t xml:space="preserve">22_792_543</t>
   </si>
   <si>
+    <t xml:space="preserve">1_126_434</t>
+  </si>
+  <si>
     <t xml:space="preserve">1_415_255_599</t>
   </si>
   <si>
@@ -300,7 +312,13 @@
     <t xml:space="preserve">9_893_917</t>
   </si>
   <si>
+    <t xml:space="preserve">4_787_505</t>
+  </si>
+  <si>
     <t xml:space="preserve">10_718_727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">610_467</t>
   </si>
   <si>
     <t xml:space="preserve">327_587_860</t>
@@ -670,6 +688,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -720,10 +742,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -813,20 +831,20 @@
   </sheetPr>
   <dimension ref="1:47"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E44" activeCellId="0" sqref="E44"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.4210526315789"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.1740890688259"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="65.3441295546559"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.8502024291498"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="66.412955465587"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -969,7 +987,9 @@
       <c r="F6" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="22"/>
+      <c r="G6" s="22" t="s">
+        <v>22</v>
+      </c>
       <c r="H6" s="17"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
@@ -981,16 +1001,16 @@
         <v>23</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>22</v>
+        <v>9</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>24</v>
       </c>
       <c r="D7" s="21" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F7" s="22" t="s">
         <v>22</v>
@@ -1006,19 +1026,19 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>22</v>
+        <v>9</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>27</v>
       </c>
       <c r="D8" s="21" t="s">
         <v>11</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F8" s="22" t="s">
         <v>22</v>
@@ -1034,25 +1054,25 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="18" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H9" s="17"/>
       <c r="I9" s="7"/>
@@ -1062,22 +1082,22 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>22</v>
+        <v>38</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>39</v>
       </c>
       <c r="G10" s="22" t="s">
         <v>22</v>
@@ -1090,22 +1110,22 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="18" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D11" s="21" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="22" t="s">
         <v>39</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>40</v>
       </c>
       <c r="G11" s="22" t="s">
         <v>22</v>
@@ -1116,21 +1136,21 @@
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
     </row>
-    <row r="12" s="25" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" s="26" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="18" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D12" s="21" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F12" s="22" t="s">
         <v>22</v>
@@ -1138,32 +1158,32 @@
       <c r="G12" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="23"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="27" t="s">
+      <c r="A13" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="30" t="s">
+      <c r="C13" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="31" t="s">
         <v>22</v>
       </c>
       <c r="H13" s="17"/>
@@ -1173,26 +1193,26 @@
       <c r="L13" s="7"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="F14" s="30" t="s">
+      <c r="A14" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="G14" s="28" t="s">
+      <c r="B14" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="29" t="s">
         <v>50</v>
+      </c>
+      <c r="F14" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="29" t="s">
+        <v>52</v>
       </c>
       <c r="H14" s="17"/>
       <c r="I14" s="7"/>
@@ -1201,26 +1221,26 @@
       <c r="L14" s="7"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="30" t="s">
+      <c r="A15" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="28" t="s">
-        <v>53</v>
+      <c r="G15" s="29" t="s">
+        <v>55</v>
       </c>
       <c r="H15" s="17"/>
       <c r="I15" s="7"/>
@@ -1229,25 +1249,25 @@
       <c r="L15" s="7"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" s="30" t="s">
+      <c r="A16" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="31" t="s">
         <v>22</v>
       </c>
       <c r="H16" s="17"/>
@@ -1258,7 +1278,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -1280,19 +1300,19 @@
         <v>9</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D18" s="21" t="s">
         <v>11</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F18" s="22" t="s">
         <v>13</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H18" s="17"/>
       <c r="I18" s="7"/>
@@ -1308,19 +1328,19 @@
         <v>9</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D19" s="21" t="s">
         <v>11</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F19" s="22" t="s">
         <v>13</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H19" s="17"/>
       <c r="I19" s="7"/>
@@ -1336,18 +1356,18 @@
         <v>9</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D20" s="21" t="s">
         <v>11</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F20" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="G20" s="31"/>
+      <c r="G20" s="32"/>
       <c r="H20" s="17"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
@@ -1359,16 +1379,16 @@
         <v>23</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>22</v>
+        <v>9</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>67</v>
       </c>
       <c r="D21" s="21" t="s">
         <v>11</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F21" s="22" t="s">
         <v>22</v>
@@ -1384,19 +1404,19 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>22</v>
+        <v>9</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>69</v>
       </c>
       <c r="D22" s="21" t="s">
         <v>11</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F22" s="22" t="s">
         <v>22</v>
@@ -1412,25 +1432,25 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="18" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G23" s="20" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H23" s="17"/>
       <c r="I23" s="7"/>
@@ -1438,53 +1458,53 @@
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
     </row>
-    <row r="24" s="34" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" s="35" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="F24" s="22" t="s">
-        <v>22</v>
+        <v>75</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>39</v>
       </c>
       <c r="G24" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="H24" s="32"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
-      <c r="AMJ24" s="35"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34"/>
+      <c r="AMJ24" s="36"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="18" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D25" s="21" t="s">
         <v>11</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G25" s="22" t="s">
         <v>22</v>
@@ -1497,19 +1517,19 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="18" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D26" s="21" t="s">
         <v>11</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F26" s="22" t="s">
         <v>22</v>
@@ -1524,104 +1544,104 @@
       <c r="L26" s="7"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" s="36" t="s">
+      <c r="A27" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="D27" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="F27" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" s="30" t="s">
+      <c r="C27" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="F27" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="31" t="s">
         <v>22</v>
       </c>
       <c r="H27" s="17"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="B28" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="D28" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="F28" s="30" t="s">
+      <c r="A28" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="G28" s="28" t="s">
-        <v>79</v>
+      <c r="B28" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="F28" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="G28" s="29" t="s">
+        <v>83</v>
       </c>
       <c r="H28" s="17"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="B29" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="D29" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="F29" s="30" t="s">
+      <c r="A29" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="F29" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="G29" s="28" t="s">
-        <v>81</v>
+      <c r="G29" s="29" t="s">
+        <v>85</v>
       </c>
       <c r="H29" s="17"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="B30" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="D30" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="F30" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="G30" s="30" t="s">
+      <c r="A30" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="F30" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30" s="31" t="s">
         <v>22</v>
       </c>
       <c r="H30" s="17"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="15" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -1639,19 +1659,19 @@
         <v>9</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D32" s="21" t="s">
         <v>11</v>
       </c>
       <c r="E32" s="20" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F32" s="22" t="s">
         <v>13</v>
       </c>
       <c r="G32" s="20" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H32" s="17"/>
     </row>
@@ -1663,19 +1683,19 @@
         <v>9</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D33" s="21" t="s">
         <v>11</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F33" s="22" t="s">
         <v>13</v>
       </c>
       <c r="G33" s="20" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="H33" s="17"/>
     </row>
@@ -1687,13 +1707,13 @@
         <v>9</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D34" s="21" t="s">
         <v>11</v>
       </c>
       <c r="E34" s="20" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F34" s="22" t="s">
         <v>22</v>
@@ -1708,14 +1728,14 @@
       <c r="B35" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="19" t="s">
-        <v>22</v>
+      <c r="C35" s="20" t="s">
+        <v>96</v>
       </c>
       <c r="D35" s="21" t="s">
         <v>11</v>
       </c>
       <c r="E35" s="20" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F35" s="22" t="s">
         <v>22</v>
@@ -1727,19 +1747,19 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B36" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C36" s="19" t="s">
-        <v>22</v>
+      <c r="C36" s="20" t="s">
+        <v>98</v>
       </c>
       <c r="D36" s="21" t="s">
         <v>11</v>
       </c>
       <c r="E36" s="20" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="F36" s="22" t="s">
         <v>22</v>
@@ -1752,46 +1772,46 @@
     </row>
     <row r="37" s="38" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="18" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D37" s="21" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E37" s="20" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="F37" s="22" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G37" s="20" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="H37" s="37"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D38" s="21" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E38" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="F38" s="22" t="s">
-        <v>22</v>
+        <v>104</v>
+      </c>
+      <c r="F38" s="23" t="s">
+        <v>39</v>
       </c>
       <c r="G38" s="22" t="s">
         <v>22</v>
@@ -1800,22 +1820,22 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="18" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D39" s="21" t="s">
         <v>11</v>
       </c>
       <c r="E39" s="20" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="F39" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G39" s="22" t="s">
         <v>22</v>
@@ -1824,19 +1844,19 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="18" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D40" s="21" t="s">
         <v>11</v>
       </c>
       <c r="E40" s="20" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="F40" s="22" t="s">
         <v>22</v>
@@ -1847,96 +1867,96 @@
       <c r="H40" s="37"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="B41" s="36" t="s">
+      <c r="A41" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C41" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="D41" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="E41" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="F41" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="G41" s="30" t="s">
+      <c r="C41" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="D41" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="F41" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="G41" s="31" t="s">
         <v>22</v>
       </c>
       <c r="H41" s="37"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="B42" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="C42" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="D42" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="E42" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="F42" s="30" t="s">
+      <c r="A42" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="G42" s="28" t="s">
-        <v>106</v>
+      <c r="B42" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="F42" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="G42" s="29" t="s">
+        <v>112</v>
       </c>
       <c r="H42" s="37"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="B43" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="C43" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="D43" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="E43" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="F43" s="30" t="s">
+      <c r="A43" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D43" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="F43" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="G43" s="28" t="s">
-        <v>108</v>
+      <c r="G43" s="29" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="B44" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="C44" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="D44" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="E44" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="F44" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="G44" s="30" t="s">
+      <c r="A44" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D44" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="F44" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="G44" s="31" t="s">
         <v>22</v>
       </c>
     </row>
